--- a/result/with_base/234/arousal/s13_1.xlsx
+++ b/result/with_base/234/arousal/s13_1.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9319196343421936</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8474999964237213</v>
+        <v>0.8727678656578064</v>
       </c>
       <c r="C2" t="n">
-        <v>41732.67578125</v>
+        <v>11276.87548828125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8465909090909091</v>
+        <v>0.8528755237074459</v>
       </c>
       <c r="E2" t="n">
-        <v>41739.47159090909</v>
+        <v>11277.46438419118</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8549999892711639</v>
+        <v>0.8895089328289032</v>
       </c>
       <c r="C3" t="n">
-        <v>40953.958984375</v>
+        <v>10958.9638671875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8798863616856661</v>
+        <v>0.8771008393343758</v>
       </c>
       <c r="E3" t="n">
-        <v>40955.96803977273</v>
+        <v>10959.04147518382</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8949999809265137</v>
+        <v>0.8861607015132904</v>
       </c>
       <c r="C4" t="n">
-        <v>40186.197265625</v>
+        <v>10648.5048828125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9038636359301481</v>
+        <v>0.9112394942956812</v>
       </c>
       <c r="E4" t="n">
-        <v>40187.46235795454</v>
+        <v>10648.09823069853</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9099999964237213</v>
+        <v>0.9107142984867096</v>
       </c>
       <c r="C5" t="n">
-        <v>39426.85546875</v>
+        <v>10345.42529296875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9206818233836781</v>
+        <v>0.9300814060603871</v>
       </c>
       <c r="E5" t="n">
-        <v>39427.16761363636</v>
+        <v>10344.94169347426</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9235491156578064</v>
       </c>
       <c r="C6" t="n">
-        <v>38675.244140625</v>
+        <v>10049.48046875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9396590861407194</v>
+        <v>0.9456407568034004</v>
       </c>
       <c r="E6" t="n">
-        <v>38676.09232954546</v>
+        <v>10049.10431985294</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C7" t="n">
-        <v>37936.396484375</v>
+        <v>9761.033203125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.941931811246005</v>
+        <v>0.9564075645278481</v>
       </c>
       <c r="E7" t="n">
-        <v>37936.7578125</v>
+        <v>9760.499195772059</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9375</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C8" t="n">
-        <v>37209.7109375</v>
+        <v>9479.57568359375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9572727246717974</v>
+        <v>0.957326682174907</v>
       </c>
       <c r="E8" t="n">
-        <v>37209.27272727273</v>
+        <v>9479.227653952206</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9525669515132904</v>
       </c>
       <c r="C9" t="n">
-        <v>36493.533203125</v>
+        <v>9205.5703125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9667045419866388</v>
+        <v>0.9662552510990816</v>
       </c>
       <c r="E9" t="n">
-        <v>36493.51313920454</v>
+        <v>9205.135627297794</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C10" t="n">
-        <v>35792.45703125</v>
+        <v>8938.7880859375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9544318101622842</v>
+        <v>0.9636292001780342</v>
       </c>
       <c r="E10" t="n">
-        <v>35791.28338068182</v>
+        <v>8938.149126838236</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C11" t="n">
-        <v>35099.42578125</v>
+        <v>8678.2900390625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.976363642649217</v>
+        <v>0.9698004196671879</v>
       </c>
       <c r="E11" t="n">
-        <v>35099.04758522727</v>
+        <v>8677.792738970587</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9375</v>
+        <v>0.9358258843421936</v>
       </c>
       <c r="C12" t="n">
-        <v>34421.08984375</v>
+        <v>8424.712890625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9672727259722623</v>
+        <v>0.9685530452167287</v>
       </c>
       <c r="E12" t="n">
-        <v>34420.51065340909</v>
+        <v>8424.373506433823</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C13" t="n">
-        <v>33753.072265625</v>
+        <v>8178.1845703125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9871591004458341</v>
+        <v>0.9737394942956812</v>
       </c>
       <c r="E13" t="n">
-        <v>33752.95916193182</v>
+        <v>8177.702521829044</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C14" t="n">
-        <v>33098.365234375</v>
+        <v>7937.972412109375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9731818220832131</v>
+        <v>0.9754464275696698</v>
       </c>
       <c r="E14" t="n">
-        <v>33098.19353693182</v>
+        <v>7937.515194163603</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C15" t="n">
-        <v>32455.3095703125</v>
+        <v>7704.19287109375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9790909236127679</v>
+        <v>0.9730173314318937</v>
       </c>
       <c r="E15" t="n">
-        <v>32454.70632102273</v>
+        <v>7703.806037454044</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C16" t="n">
-        <v>31823.2021484375</v>
+        <v>7476.63037109375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9893181920051575</v>
+        <v>0.9774159648839165</v>
       </c>
       <c r="E16" t="n">
-        <v>31822.640625</v>
+        <v>7476.299115349265</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C17" t="n">
-        <v>31203.056640625</v>
+        <v>7255.378662109375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9881818294525146</v>
+        <v>0.9750525215092827</v>
       </c>
       <c r="E17" t="n">
-        <v>31202.32794744318</v>
+        <v>7254.99893727022</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C18" t="n">
-        <v>30593.095703125</v>
+        <v>7040.01904296875</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9925000071525574</v>
+        <v>0.9787289920975181</v>
       </c>
       <c r="E18" t="n">
-        <v>30593.06693892046</v>
+        <v>7039.619456571691</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9391741156578064</v>
       </c>
       <c r="C19" t="n">
-        <v>29995.7607421875</v>
+        <v>6830.50439453125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9914772781458768</v>
+        <v>0.9769564060603871</v>
       </c>
       <c r="E19" t="n">
-        <v>29995.20081676136</v>
+        <v>6830.14892578125</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9202008843421936</v>
       </c>
       <c r="C20" t="n">
-        <v>29409.1572265625</v>
+        <v>6626.940673828125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.986704555424777</v>
+        <v>0.9711134468807894</v>
       </c>
       <c r="E20" t="n">
-        <v>29408.31977982954</v>
+        <v>6626.389389935662</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9397321343421936</v>
       </c>
       <c r="C21" t="n">
-        <v>28832.9150390625</v>
+        <v>6428.57666015625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9889772805300626</v>
+        <v>0.9776129196671879</v>
       </c>
       <c r="E21" t="n">
-        <v>28832.12872869318</v>
+        <v>6428.187471277573</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9313616156578064</v>
       </c>
       <c r="C22" t="n">
-        <v>28266.7275390625</v>
+        <v>6235.94970703125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9944318207827482</v>
+        <v>0.9735425430185655</v>
       </c>
       <c r="E22" t="n">
-        <v>28266.39506392046</v>
+        <v>6235.487132352941</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9319196343421936</v>
       </c>
       <c r="C23" t="n">
-        <v>27712.169921875</v>
+        <v>6048.529296875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9901136430827054</v>
+        <v>0.9772846628637875</v>
       </c>
       <c r="E23" t="n">
-        <v>27711.26455965909</v>
+        <v>6048.073529411765</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9358258843421936</v>
       </c>
       <c r="C24" t="n">
-        <v>27167.052734375</v>
+        <v>5866.2373046875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9915909171104431</v>
+        <v>0.9856880237074459</v>
       </c>
       <c r="E24" t="n">
-        <v>27166.33735795454</v>
+        <v>5865.804026884191</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C25" t="n">
-        <v>26632.72265625</v>
+        <v>5689.08837890625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.991136372089386</v>
+        <v>0.9829963235294118</v>
       </c>
       <c r="E25" t="n">
-        <v>26631.54456676136</v>
+        <v>5688.645737591912</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9397321343421936</v>
       </c>
       <c r="C26" t="n">
-        <v>26107.333984375</v>
+        <v>5516.7744140625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9942045482722196</v>
+        <v>0.9841780452167287</v>
       </c>
       <c r="E26" t="n">
-        <v>26106.67471590909</v>
+        <v>5516.380198759191</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C27" t="n">
-        <v>25592.4814453125</v>
+        <v>5349.23876953125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9906818270683289</v>
+        <v>0.9903492647058824</v>
       </c>
       <c r="E27" t="n">
-        <v>25591.67897727273</v>
+        <v>5348.877470128677</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9441964328289032</v>
       </c>
       <c r="C28" t="n">
-        <v>25086.4638671875</v>
+        <v>5186.3779296875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9898240531192106</v>
       </c>
       <c r="E28" t="n">
-        <v>25086.11150568182</v>
+        <v>5186.08846507353</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C29" t="n">
-        <v>24590.6396484375</v>
+        <v>5028.004638671875</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9912027295897988</v>
       </c>
       <c r="E29" t="n">
-        <v>24590.05291193182</v>
+        <v>5027.803050321691</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C30" t="n">
-        <v>24103.587890625</v>
+        <v>4874.375244140625</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9841780452167287</v>
       </c>
       <c r="E30" t="n">
-        <v>24103.15749289773</v>
+        <v>4874.015194163603</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9375</v>
       </c>
       <c r="C31" t="n">
-        <v>23625.873046875</v>
+        <v>4724.706787109375</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9921218472368577</v>
       </c>
       <c r="E31" t="n">
-        <v>23625.44637784091</v>
+        <v>4724.493824678309</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C32" t="n">
-        <v>23157.23046875</v>
+        <v>4579.400634765625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9921218472368577</v>
       </c>
       <c r="E32" t="n">
-        <v>23156.61292613636</v>
+        <v>4579.188505284927</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C33" t="n">
-        <v>22696.99609375</v>
+        <v>4438.22802734375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9822085079024819</v>
       </c>
       <c r="E33" t="n">
-        <v>22696.52556818182</v>
+        <v>4438.049689797794</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C34" t="n">
-        <v>22245.4580078125</v>
+        <v>4301.077392578125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9965909123420715</v>
+        <v>0.9824054626857534</v>
       </c>
       <c r="E34" t="n">
-        <v>22245.05894886364</v>
+        <v>4300.840130974265</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9202008843421936</v>
       </c>
       <c r="C35" t="n">
-        <v>21802.201171875</v>
+        <v>4167.970458984375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9679621843730702</v>
       </c>
       <c r="E35" t="n">
-        <v>21802.02059659091</v>
+        <v>4167.57559742647</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.95703125</v>
       </c>
       <c r="C36" t="n">
-        <v>21367.353515625</v>
+        <v>4038.063720703125</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9938944332739886</v>
       </c>
       <c r="E36" t="n">
-        <v>21367.28480113636</v>
+        <v>4037.946877872243</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9486607015132904</v>
       </c>
       <c r="C37" t="n">
-        <v>20940.8857421875</v>
+        <v>3912.3564453125</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9989772709933195</v>
+        <v>0.9902836119427401</v>
       </c>
       <c r="E37" t="n">
-        <v>20940.71999289773</v>
+        <v>3912.124411190257</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.953125</v>
       </c>
       <c r="C38" t="n">
-        <v>20522.5654296875</v>
+        <v>3790.037719726562</v>
       </c>
       <c r="D38" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9884453766486224</v>
       </c>
       <c r="E38" t="n">
-        <v>20522.15749289773</v>
+        <v>3789.879222196691</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9441964328289032</v>
       </c>
       <c r="C39" t="n">
-        <v>20111.705078125</v>
+        <v>3671.309448242188</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9824054626857534</v>
       </c>
       <c r="E39" t="n">
-        <v>20111.41388494318</v>
+        <v>3671.148408777573</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C40" t="n">
-        <v>19709.0390625</v>
+        <v>3555.8916015625</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E40" t="n">
-        <v>19708.46253551136</v>
+        <v>3555.751249425552</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.94921875</v>
       </c>
       <c r="C41" t="n">
-        <v>19313.294921875</v>
+        <v>3443.849853515625</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E41" t="n">
-        <v>19313.03870738636</v>
+        <v>3443.695599724265</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.94921875</v>
       </c>
       <c r="C42" t="n">
-        <v>18925.4189453125</v>
+        <v>3335.036254882812</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9903492647058824</v>
       </c>
       <c r="E42" t="n">
-        <v>18925.03444602273</v>
+        <v>3334.860782398897</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C43" t="n">
-        <v>18544.5478515625</v>
+        <v>3229.340209960938</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.984112395959742</v>
       </c>
       <c r="E43" t="n">
-        <v>18544.33309659091</v>
+        <v>3229.168141084559</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9397321343421936</v>
       </c>
       <c r="C44" t="n">
-        <v>18171.103515625</v>
+        <v>3126.675903320312</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9984090924263</v>
+        <v>0.9860819332739886</v>
       </c>
       <c r="E44" t="n">
-        <v>18170.78799715909</v>
+        <v>3126.520694508272</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C45" t="n">
-        <v>17804.5478515625</v>
+        <v>3026.937622070312</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9929753156269298</v>
       </c>
       <c r="E45" t="n">
-        <v>17804.30699573864</v>
+        <v>3026.827363855698</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C46" t="n">
-        <v>17444.9501953125</v>
+        <v>2930.252197265625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9773503156269298</v>
       </c>
       <c r="E46" t="n">
-        <v>17444.76012073864</v>
+        <v>2930.1005859375</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C47" t="n">
-        <v>17092.337890625</v>
+        <v>2836.221435546875</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9815519942956812</v>
       </c>
       <c r="E47" t="n">
-        <v>17091.99822443182</v>
+        <v>2836.121481502757</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C48" t="n">
-        <v>16746.130859375</v>
+        <v>2744.974731445312</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0.9898897058823529</v>
       </c>
       <c r="E48" t="n">
-        <v>16745.88884943182</v>
+        <v>2744.860753676471</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="C49" t="n">
-        <v>16406.83984375</v>
+        <v>2656.369873046875</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9906775215092827</v>
       </c>
       <c r="E49" t="n">
-        <v>16406.35617897727</v>
+        <v>2656.290010340073</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9453125</v>
       </c>
       <c r="C50" t="n">
-        <v>16073.892578125</v>
+        <v>2570.430541992188</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9898240531192106</v>
       </c>
       <c r="E50" t="n">
-        <v>16073.2587890625</v>
+        <v>2570.32124597886</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,850 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9800000190734863</v>
+        <v>0.9319196343421936</v>
       </c>
       <c r="C51" t="n">
-        <v>15746.66015625</v>
+        <v>2487.109008789062</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9956818222999573</v>
+        <v>0.9502363450386945</v>
       </c>
       <c r="E51" t="n">
-        <v>15746.43936434659</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15426.0302734375</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15425.78666548295</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9825000166893005</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15111.33154296875</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15111.23330965909</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14803.0546875</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14802.64311079545</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14500.28955078125</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14499.92755681818</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9900000095367432</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14203.12548828125</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14202.94957386364</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13911.97216796875</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13911.63396661932</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13626.04638671875</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13625.86186079545</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13345.77783203125</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13345.53169389205</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13070.7568359375</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13070.54865056818</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12800.98046875</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12800.81791548295</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12536.455078125</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12536.25763494318</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12276.88525390625</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12276.73286576705</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12022.416015625</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12022.18874289773</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11772.95703125</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11772.54350142045</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11528.18017578125</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11527.69380326705</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11287.60302734375</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11287.51216264205</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11052.20166015625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11051.95978338068</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10821.09716796875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10820.93306107955</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10594.4609375</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10594.3515625</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10372.20703125</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10372.12899502841</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10154.287109375</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10154.20667613636</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9940.6083984375</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9940.5068359375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9731.09326171875</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9730.9365234375</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9525.68896484375</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9525.44034090909</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9324.021484375</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9323.918767755682</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9126.3896484375</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9126.327947443182</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8932.666015625</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8932.563920454546</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8742.67578125</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8742.581498579546</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8556.3916015625</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8556.302379261364</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8373.81591796875</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8373.665660511364</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2903225806451613</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3548387096774194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8064516129032258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.004784688995215311</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8064516129032258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.004784688995215311</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8709677419354839</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.009569377990430622</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8709677419354839</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.009569377990430622</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9032258064516129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.01435406698564593</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9032258064516129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.01435406698564593</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.967741935483871</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.02392344497607655</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.967741935483871</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.02392344497607655</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9186602870813397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9473684210526315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9760765550239234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9760765550239234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9856459330143541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.09677419354838709</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9856459330143541</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.09677419354838709</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9904306220095693</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.1290322580645161</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9904306220095693</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1290322580645161</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9952153110047847</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1935483870967742</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9952153110047847</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.1935483870967742</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9976848279055409</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+        <v>2486.980396943934</v>
       </c>
     </row>
   </sheetData>
